--- a/REGULAR/BUDGET/PENAFIEL, MELISSA Q..xlsx
+++ b/REGULAR/BUDGET/PENAFIEL, MELISSA Q..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA4EF37-D9CF-4308-94B9-51C2318BCCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="263">
   <si>
     <t>PERIOD</t>
   </si>
@@ -811,12 +812,24 @@
   </si>
   <si>
     <t>UT(0-1-24)</t>
+  </si>
+  <si>
+    <t>10/5,6/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/22,29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1520,7 +1533,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1576,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1640,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1700,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1766,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1816,7 +1829,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1927,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1986,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2051,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +2094,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2169,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2342,7 +2355,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2421,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2479,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +2545,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2601,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2676,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +2719,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2772,7 +2785,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2841,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2907,7 +2920,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2924,26 +2937,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K540" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K540"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K542" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K542" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3250,7 +3263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3260,7 +3273,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3268,34 +3281,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K540"/>
+  <dimension ref="A2:K542"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A481" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A487" activePane="bottomLeft"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="K490" sqref="K490"/>
+      <selection pane="bottomLeft" activeCell="B496" sqref="B496"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3316,7 +3329,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3334,7 +3347,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3356,7 +3369,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3364,7 +3377,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3377,7 +3390,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3394,7 +3407,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3429,7 +3442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3438,7 +3451,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>92.791000000000111</v>
+        <v>96.791000000000111</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3448,12 +3461,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>184.5</v>
+        <v>187.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3473,7 +3486,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>75</v>
       </c>
@@ -3488,7 +3501,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>36745</v>
       </c>
@@ -3508,7 +3521,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36770</v>
       </c>
@@ -3528,7 +3541,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36800</v>
       </c>
@@ -3548,7 +3561,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>36831</v>
       </c>
@@ -3568,7 +3581,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36861</v>
       </c>
@@ -3588,7 +3601,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>76</v>
       </c>
@@ -3610,7 +3623,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>36892</v>
       </c>
@@ -3630,7 +3643,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36923</v>
       </c>
@@ -3650,7 +3663,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>36951</v>
       </c>
@@ -3670,7 +3683,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36982</v>
       </c>
@@ -3690,7 +3703,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>37012</v>
       </c>
@@ -3710,7 +3723,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>37043</v>
       </c>
@@ -3730,7 +3743,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>37073</v>
       </c>
@@ -3750,7 +3763,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>37104</v>
       </c>
@@ -3770,7 +3783,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>37135</v>
       </c>
@@ -3790,7 +3803,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>37165</v>
       </c>
@@ -3810,7 +3823,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>37196</v>
       </c>
@@ -3830,7 +3843,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>37226</v>
       </c>
@@ -3854,7 +3867,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>77</v>
       </c>
@@ -3876,7 +3889,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>37257</v>
       </c>
@@ -3896,7 +3909,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>37288</v>
       </c>
@@ -3916,7 +3929,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>37316</v>
       </c>
@@ -3936,7 +3949,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>37347</v>
       </c>
@@ -3956,7 +3969,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>37377</v>
       </c>
@@ -3976,7 +3989,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>37408</v>
       </c>
@@ -3996,7 +4009,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>37438</v>
       </c>
@@ -4016,7 +4029,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>37469</v>
       </c>
@@ -4036,7 +4049,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>37500</v>
       </c>
@@ -4056,7 +4069,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>37530</v>
       </c>
@@ -4076,7 +4089,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>37561</v>
       </c>
@@ -4096,7 +4109,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>37591</v>
       </c>
@@ -4120,7 +4133,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="48" t="s">
         <v>78</v>
       </c>
@@ -4142,7 +4155,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>37622</v>
       </c>
@@ -4162,7 +4175,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>37653</v>
       </c>
@@ -4182,7 +4195,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>37681</v>
       </c>
@@ -4202,7 +4215,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>37712</v>
       </c>
@@ -4222,7 +4235,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>37742</v>
       </c>
@@ -4242,7 +4255,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>37773</v>
       </c>
@@ -4262,7 +4275,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>37803</v>
       </c>
@@ -4282,7 +4295,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>37834</v>
       </c>
@@ -4302,7 +4315,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>37865</v>
       </c>
@@ -4322,7 +4335,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>37895</v>
       </c>
@@ -4342,7 +4355,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>37926</v>
       </c>
@@ -4362,7 +4375,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>37956</v>
       </c>
@@ -4386,7 +4399,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>79</v>
       </c>
@@ -4408,7 +4421,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>37987</v>
       </c>
@@ -4428,7 +4441,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>38018</v>
       </c>
@@ -4448,7 +4461,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>38047</v>
       </c>
@@ -4468,7 +4481,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>38078</v>
       </c>
@@ -4488,7 +4501,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>38108</v>
       </c>
@@ -4508,7 +4521,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>38139</v>
       </c>
@@ -4528,7 +4541,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>38169</v>
       </c>
@@ -4552,7 +4565,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>93</v>
@@ -4572,7 +4585,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>38200</v>
       </c>
@@ -4592,7 +4605,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>38231</v>
       </c>
@@ -4612,7 +4625,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>38261</v>
       </c>
@@ -4632,7 +4645,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>38292</v>
       </c>
@@ -4652,7 +4665,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>38322</v>
       </c>
@@ -4672,7 +4685,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>80</v>
       </c>
@@ -4694,7 +4707,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>38353</v>
       </c>
@@ -4714,7 +4727,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>38384</v>
       </c>
@@ -4734,7 +4747,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>38412</v>
       </c>
@@ -4754,7 +4767,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>38443</v>
       </c>
@@ -4774,7 +4787,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>38473</v>
       </c>
@@ -4794,7 +4807,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>38504</v>
       </c>
@@ -4814,7 +4827,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>38534</v>
       </c>
@@ -4834,7 +4847,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>38565</v>
       </c>
@@ -4854,7 +4867,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>38596</v>
       </c>
@@ -4880,7 +4893,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>38626</v>
       </c>
@@ -4900,7 +4913,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>38657</v>
       </c>
@@ -4920,7 +4933,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>38687</v>
       </c>
@@ -4940,7 +4953,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>81</v>
       </c>
@@ -4962,7 +4975,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>38718</v>
       </c>
@@ -4982,7 +4995,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>38749</v>
       </c>
@@ -5002,7 +5015,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>38777</v>
       </c>
@@ -5022,7 +5035,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>38808</v>
       </c>
@@ -5042,7 +5055,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>38838</v>
       </c>
@@ -5062,7 +5075,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>38869</v>
       </c>
@@ -5082,7 +5095,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>38899</v>
       </c>
@@ -5102,7 +5115,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>38930</v>
       </c>
@@ -5122,7 +5135,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>38961</v>
       </c>
@@ -5142,7 +5155,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>38991</v>
       </c>
@@ -5162,7 +5175,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>39022</v>
       </c>
@@ -5182,7 +5195,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>39052</v>
       </c>
@@ -5206,7 +5219,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="48" t="s">
         <v>82</v>
       </c>
@@ -5228,7 +5241,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="50" t="s">
         <v>95</v>
       </c>
@@ -5248,7 +5261,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>39209</v>
       </c>
@@ -5272,7 +5285,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>39234</v>
       </c>
@@ -5292,7 +5305,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>39264</v>
       </c>
@@ -5316,7 +5329,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>99</v>
@@ -5336,7 +5349,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>39295</v>
       </c>
@@ -5362,7 +5375,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>51</v>
@@ -5381,7 +5394,7 @@
         <v>39293</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>100</v>
@@ -5398,7 +5411,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>101</v>
@@ -5415,7 +5428,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>39326</v>
       </c>
@@ -5439,7 +5452,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>39356</v>
       </c>
@@ -5463,7 +5476,7 @@
         <v>39377</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>103</v>
@@ -5480,7 +5493,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>39387</v>
       </c>
@@ -5506,7 +5519,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>51</v>
@@ -5528,7 +5541,7 @@
         <v>39406</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>104</v>
@@ -5548,7 +5561,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>39417</v>
       </c>
@@ -5574,7 +5587,7 @@
         <v>39415</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>53</v>
@@ -5596,7 +5609,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>50</v>
@@ -5616,7 +5629,7 @@
         <v>39428</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>52</v>
@@ -5638,7 +5651,7 @@
         <v>39437</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>105</v>
@@ -5658,7 +5671,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="48" t="s">
         <v>83</v>
       </c>
@@ -5680,7 +5693,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>39448</v>
       </c>
@@ -5706,7 +5719,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>50</v>
@@ -5726,7 +5739,7 @@
         <v>39456</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>51</v>
@@ -5748,7 +5761,7 @@
         <v>39457</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>51</v>
@@ -5770,7 +5783,7 @@
         <v>39468</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>39479</v>
       </c>
@@ -5796,7 +5809,7 @@
         <v>39483</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>51</v>
@@ -5818,7 +5831,7 @@
         <v>39484</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>55</v>
@@ -5840,7 +5853,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>39508</v>
       </c>
@@ -5864,7 +5877,7 @@
         <v>39521</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>51</v>
@@ -5886,7 +5899,7 @@
         <v>39531</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>39539</v>
       </c>
@@ -5906,7 +5919,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>39569</v>
       </c>
@@ -5932,7 +5945,7 @@
         <v>39581</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>51</v>
@@ -5954,7 +5967,7 @@
         <v>39595</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>107</v>
@@ -5974,7 +5987,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>39600</v>
       </c>
@@ -5994,7 +6007,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>39630</v>
       </c>
@@ -6018,7 +6031,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>39661</v>
       </c>
@@ -6044,7 +6057,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>51</v>
@@ -6066,7 +6079,7 @@
         <v>39693</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>109</v>
@@ -6086,7 +6099,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>39692</v>
       </c>
@@ -6112,7 +6125,7 @@
         <v>39714</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>110</v>
@@ -6132,7 +6145,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>39722</v>
       </c>
@@ -6158,7 +6171,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>50</v>
@@ -6178,7 +6191,7 @@
         <v>39743</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>53</v>
@@ -6200,7 +6213,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>51</v>
@@ -6222,7 +6235,7 @@
         <v>39750</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>39753</v>
       </c>
@@ -6248,7 +6261,7 @@
         <v>39769</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>51</v>
@@ -6270,7 +6283,7 @@
         <v>39777</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>39783</v>
       </c>
@@ -6296,7 +6309,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>114</v>
@@ -6318,7 +6331,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="48" t="s">
         <v>84</v>
       </c>
@@ -6340,7 +6353,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>39814</v>
       </c>
@@ -6360,7 +6373,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>39845</v>
       </c>
@@ -6384,7 +6397,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>39873</v>
       </c>
@@ -6408,7 +6421,7 @@
         <v>39891</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>119</v>
@@ -6428,7 +6441,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>39904</v>
       </c>
@@ -6454,7 +6467,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>59</v>
@@ -6476,7 +6489,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>120</v>
@@ -6496,7 +6509,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>39934</v>
       </c>
@@ -6522,7 +6535,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>121</v>
@@ -6542,7 +6555,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>39965</v>
       </c>
@@ -6568,7 +6581,7 @@
         <v>39983</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>125</v>
@@ -6588,7 +6601,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>39995</v>
       </c>
@@ -6614,7 +6627,7 @@
         <v>40011</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>126</v>
@@ -6634,7 +6647,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>40026</v>
       </c>
@@ -6658,7 +6671,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>40057</v>
       </c>
@@ -6682,7 +6695,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>40087</v>
       </c>
@@ -6706,7 +6719,7 @@
         <v>40108</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>129</v>
@@ -6728,7 +6741,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>130</v>
@@ -6748,7 +6761,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>40118</v>
       </c>
@@ -6772,7 +6785,7 @@
         <v>40127</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>40148</v>
       </c>
@@ -6798,7 +6811,7 @@
         <v>40163</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>131</v>
@@ -6818,7 +6831,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="48" t="s">
         <v>85</v>
       </c>
@@ -6840,7 +6853,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>40179</v>
       </c>
@@ -6864,7 +6877,7 @@
         <v>40186</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>53</v>
@@ -6886,7 +6899,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>51</v>
@@ -6908,7 +6921,7 @@
         <v>40205</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>133</v>
@@ -6928,7 +6941,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>40210</v>
       </c>
@@ -6954,7 +6967,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>134</v>
@@ -6974,7 +6987,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>40238</v>
       </c>
@@ -7000,7 +7013,7 @@
         <v>40240</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>53</v>
@@ -7019,7 +7032,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>50</v>
@@ -7036,7 +7049,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>136</v>
@@ -7053,7 +7066,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="49"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>40269</v>
       </c>
@@ -7079,7 +7092,7 @@
         <v>40281</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>51</v>
@@ -7101,7 +7114,7 @@
         <v>40288</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>137</v>
@@ -7121,7 +7134,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>40299</v>
       </c>
@@ -7145,7 +7158,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>40330</v>
       </c>
@@ -7171,7 +7184,7 @@
         <v>40336</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>59</v>
@@ -7193,7 +7206,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>140</v>
@@ -7213,7 +7226,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>40360</v>
       </c>
@@ -7239,7 +7252,7 @@
         <v>40361</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>51</v>
@@ -7261,7 +7274,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>51</v>
@@ -7283,7 +7296,7 @@
         <v>40379</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>141</v>
@@ -7303,7 +7316,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>40391</v>
       </c>
@@ -7329,7 +7342,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>51</v>
@@ -7351,7 +7364,7 @@
         <v>40416</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>142</v>
@@ -7371,7 +7384,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>40422</v>
       </c>
@@ -7397,7 +7410,7 @@
         <v>40422</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>59</v>
@@ -7419,7 +7432,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>143</v>
@@ -7439,7 +7452,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>40452</v>
       </c>
@@ -7465,7 +7478,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>52</v>
@@ -7484,7 +7497,7 @@
         <v>40473</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>145</v>
@@ -7501,7 +7514,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>40483</v>
       </c>
@@ -7525,7 +7538,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>40513</v>
       </c>
@@ -7549,7 +7562,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>148</v>
@@ -7568,7 +7581,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="48" t="s">
         <v>86</v>
       </c>
@@ -7590,7 +7603,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>40544</v>
       </c>
@@ -7616,7 +7629,7 @@
         <v>40550</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>51</v>
@@ -7638,7 +7651,7 @@
         <v>40570</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>149</v>
@@ -7658,7 +7671,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>40575</v>
       </c>
@@ -7682,7 +7695,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>40603</v>
       </c>
@@ -7706,7 +7719,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>150</v>
@@ -7726,7 +7739,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>40634</v>
       </c>
@@ -7752,7 +7765,7 @@
         <v>40653</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>151</v>
@@ -7772,7 +7785,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>50</v>
@@ -7792,7 +7805,7 @@
         <v>40675</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>50</v>
@@ -7812,7 +7825,7 @@
         <v>40677</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>40664</v>
       </c>
@@ -7838,7 +7851,7 @@
         <v>40695</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>51</v>
@@ -7860,7 +7873,7 @@
         <v>40693</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>152</v>
@@ -7880,7 +7893,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>40695</v>
       </c>
@@ -7906,7 +7919,7 @@
         <v>40707</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>50</v>
@@ -7926,7 +7939,7 @@
         <v>40709</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>51</v>
@@ -7946,7 +7959,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>158</v>
@@ -7966,7 +7979,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>40725</v>
       </c>
@@ -7990,7 +8003,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>40756</v>
       </c>
@@ -8014,7 +8027,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>40787</v>
       </c>
@@ -8040,7 +8053,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>51</v>
@@ -8062,7 +8075,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>161</v>
@@ -8082,7 +8095,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>40817</v>
       </c>
@@ -8108,7 +8121,7 @@
         <v>40835</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>52</v>
@@ -8130,7 +8143,7 @@
         <v>40844</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>162</v>
@@ -8150,7 +8163,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>40848</v>
       </c>
@@ -8178,7 +8191,7 @@
         <v>40849</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>53</v>
@@ -8200,7 +8213,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>163</v>
@@ -8220,7 +8233,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>40878</v>
       </c>
@@ -8244,7 +8257,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="48" t="s">
         <v>87</v>
       </c>
@@ -8266,7 +8279,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>40909</v>
       </c>
@@ -8292,7 +8305,7 @@
         <v>40910</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>50</v>
@@ -8309,7 +8322,7 @@
         <v>40917</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>165</v>
@@ -8326,7 +8339,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>40940</v>
       </c>
@@ -8352,7 +8365,7 @@
         <v>40945</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>166</v>
@@ -8369,7 +8382,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="49"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>59</v>
@@ -8388,7 +8401,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>52</v>
@@ -8407,7 +8420,7 @@
         <v>40953</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>52</v>
@@ -8426,7 +8439,7 @@
         <v>40963</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>51</v>
@@ -8445,7 +8458,7 @@
         <v>40966</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>40969</v>
       </c>
@@ -8471,7 +8484,7 @@
         <v>40987</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>51</v>
@@ -8493,7 +8506,7 @@
         <v>40989</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>169</v>
@@ -8513,7 +8526,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>41000</v>
       </c>
@@ -8537,7 +8550,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>41030</v>
       </c>
@@ -8563,7 +8576,7 @@
         <v>41044</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>51</v>
@@ -8585,7 +8598,7 @@
         <v>41050</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>53</v>
@@ -8607,7 +8620,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>52</v>
@@ -8629,7 +8642,7 @@
         <v>41059</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>170</v>
@@ -8649,7 +8662,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>41061</v>
       </c>
@@ -8675,7 +8688,7 @@
         <v>41064</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>171</v>
@@ -8695,7 +8708,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>41091</v>
       </c>
@@ -8721,7 +8734,7 @@
         <v>41102</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>172</v>
@@ -8741,7 +8754,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>41122</v>
       </c>
@@ -8765,7 +8778,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>41153</v>
       </c>
@@ -8789,7 +8802,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>41183</v>
       </c>
@@ -8815,7 +8828,7 @@
         <v>41204</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>51</v>
@@ -8834,7 +8847,7 @@
         <v>41201</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>55</v>
@@ -8851,7 +8864,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="49"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>177</v>
@@ -8868,7 +8881,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="49"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>41214</v>
       </c>
@@ -8894,7 +8907,7 @@
         <v>41234</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>186</v>
@@ -8914,7 +8927,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>41244</v>
       </c>
@@ -8940,7 +8953,7 @@
         <v>41246</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>53</v>
@@ -8962,7 +8975,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>185</v>
@@ -8982,7 +8995,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="48" t="s">
         <v>88</v>
       </c>
@@ -9004,7 +9017,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>41275</v>
       </c>
@@ -9028,7 +9041,7 @@
         <v>41282</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>178</v>
@@ -9050,7 +9063,7 @@
         <v>41283</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>41306</v>
       </c>
@@ -9076,7 +9089,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>179</v>
@@ -9096,7 +9109,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>41334</v>
       </c>
@@ -9122,7 +9135,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>180</v>
@@ -9142,7 +9155,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>41365</v>
       </c>
@@ -9166,7 +9179,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>41395</v>
       </c>
@@ -9192,7 +9205,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>182</v>
@@ -9212,7 +9225,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>41426</v>
       </c>
@@ -9236,7 +9249,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>41456</v>
       </c>
@@ -9262,7 +9275,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>51</v>
@@ -9284,7 +9297,7 @@
         <v>41484</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>184</v>
@@ -9304,7 +9317,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>41487</v>
       </c>
@@ -9328,7 +9341,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>41518</v>
       </c>
@@ -9354,7 +9367,7 @@
         <v>41544</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>191</v>
@@ -9371,7 +9384,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>41548</v>
       </c>
@@ -9395,7 +9408,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>192</v>
@@ -9417,7 +9430,7 @@
         <v>41571</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>129</v>
@@ -9439,7 +9452,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>133</v>
@@ -9459,7 +9472,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>41579</v>
       </c>
@@ -9487,7 +9500,7 @@
         <v>41598</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>50</v>
@@ -9507,7 +9520,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>193</v>
@@ -9527,7 +9540,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>41609</v>
       </c>
@@ -9551,7 +9564,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="48" t="s">
         <v>89</v>
       </c>
@@ -9573,7 +9586,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>41640</v>
       </c>
@@ -9597,7 +9610,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>195</v>
@@ -9617,7 +9630,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>41671</v>
       </c>
@@ -9643,7 +9656,7 @@
         <v>41677</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>196</v>
@@ -9663,7 +9676,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>41699</v>
       </c>
@@ -9689,7 +9702,7 @@
         <v>41702</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>197</v>
@@ -9711,7 +9724,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>51</v>
@@ -9733,7 +9746,7 @@
         <v>41715</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>198</v>
@@ -9753,7 +9766,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>41730</v>
       </c>
@@ -9779,7 +9792,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>51</v>
@@ -9801,7 +9814,7 @@
         <v>41757</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>207</v>
@@ -9821,7 +9834,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>41760</v>
       </c>
@@ -9845,7 +9858,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>41791</v>
       </c>
@@ -9869,7 +9882,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>51</v>
@@ -9891,7 +9904,7 @@
         <v>41806</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>209</v>
@@ -9911,7 +9924,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>41821</v>
       </c>
@@ -9935,7 +9948,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>71</v>
@@ -9955,7 +9968,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>210</v>
@@ -9975,7 +9988,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>41852</v>
       </c>
@@ -9999,7 +10012,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>41883</v>
       </c>
@@ -10025,7 +10038,7 @@
         <v>41890</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>59</v>
@@ -10047,7 +10060,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>99</v>
@@ -10067,7 +10080,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>41913</v>
       </c>
@@ -10093,7 +10106,7 @@
         <v>41925</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>52</v>
@@ -10115,7 +10128,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>192</v>
@@ -10137,7 +10150,7 @@
         <v>41934</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>51</v>
@@ -10159,7 +10172,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>197</v>
@@ -10179,7 +10192,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>194</v>
@@ -10201,7 +10214,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>41944</v>
       </c>
@@ -10227,7 +10240,7 @@
         <v>41989</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>216</v>
@@ -10244,7 +10257,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="49"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>41974</v>
       </c>
@@ -10268,7 +10281,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="48" t="s">
         <v>90</v>
       </c>
@@ -10290,7 +10303,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>42005</v>
       </c>
@@ -10314,7 +10327,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>51</v>
@@ -10336,7 +10349,7 @@
         <v>42037</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>218</v>
@@ -10356,7 +10369,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>42036</v>
       </c>
@@ -10380,7 +10393,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>42064</v>
       </c>
@@ -10406,7 +10419,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>50</v>
@@ -10426,7 +10439,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>59</v>
@@ -10448,7 +10461,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>220</v>
@@ -10468,7 +10481,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>42095</v>
       </c>
@@ -10494,7 +10507,7 @@
         <v>42122</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>221</v>
@@ -10514,7 +10527,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>42125</v>
       </c>
@@ -10540,7 +10553,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>222</v>
@@ -10560,7 +10573,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>42156</v>
       </c>
@@ -10584,7 +10597,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>42186</v>
       </c>
@@ -10610,7 +10623,7 @@
         <v>42194</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>51</v>
@@ -10632,7 +10645,7 @@
         <v>42216</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>224</v>
@@ -10652,7 +10665,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>42217</v>
       </c>
@@ -10676,7 +10689,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>42248</v>
       </c>
@@ -10700,7 +10713,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>42278</v>
       </c>
@@ -10724,7 +10737,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>55</v>
@@ -10746,7 +10759,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>231</v>
@@ -10766,7 +10779,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>42309</v>
       </c>
@@ -10792,7 +10805,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>51</v>
@@ -10814,7 +10827,7 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>232</v>
@@ -10834,7 +10847,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>42339</v>
       </c>
@@ -10860,7 +10873,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>59</v>
@@ -10882,7 +10895,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>233</v>
@@ -10902,7 +10915,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="48" t="s">
         <v>91</v>
       </c>
@@ -10924,7 +10937,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>42370</v>
       </c>
@@ -10948,7 +10961,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>42401</v>
       </c>
@@ -10972,7 +10985,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>42430</v>
       </c>
@@ -10998,7 +11011,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>235</v>
@@ -11018,7 +11031,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>42461</v>
       </c>
@@ -11044,7 +11057,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>51</v>
@@ -11066,7 +11079,7 @@
         <v>42518</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>51</v>
@@ -11088,7 +11101,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>240</v>
@@ -11108,7 +11121,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="49"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>42491</v>
       </c>
@@ -11132,7 +11145,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>42522</v>
       </c>
@@ -11158,7 +11171,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>242</v>
@@ -11178,7 +11191,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>42552</v>
       </c>
@@ -11204,7 +11217,7 @@
         <v>42573</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>243</v>
@@ -11224,7 +11237,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>42583</v>
       </c>
@@ -11248,7 +11261,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>140</v>
@@ -11268,7 +11281,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>42614</v>
       </c>
@@ -11288,7 +11301,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>42644</v>
       </c>
@@ -11308,7 +11321,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>42675</v>
       </c>
@@ -11334,7 +11347,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>244</v>
@@ -11354,7 +11367,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>42705</v>
       </c>
@@ -11380,7 +11393,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>245</v>
@@ -11400,7 +11413,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>246</v>
@@ -11420,7 +11433,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="48" t="s">
         <v>49</v>
       </c>
@@ -11442,7 +11455,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>42736</v>
       </c>
@@ -11466,7 +11479,7 @@
         <v>42744</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>51</v>
@@ -11490,7 +11503,7 @@
         <v>42760</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>42767</v>
       </c>
@@ -11516,7 +11529,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>42795</v>
       </c>
@@ -11542,7 +11555,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>50</v>
@@ -11562,7 +11575,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>42826</v>
       </c>
@@ -11582,7 +11595,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>42856</v>
       </c>
@@ -11608,7 +11621,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>42887</v>
       </c>
@@ -11628,7 +11641,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>42917</v>
       </c>
@@ -11654,7 +11667,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>42948</v>
       </c>
@@ -11674,7 +11687,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>42979</v>
       </c>
@@ -11700,7 +11713,7 @@
         <v>42992</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>43009</v>
       </c>
@@ -11720,7 +11733,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>43040</v>
       </c>
@@ -11746,7 +11759,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>51</v>
@@ -11768,7 +11781,7 @@
         <v>43055</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>43070</v>
       </c>
@@ -11794,7 +11807,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>50</v>
@@ -11816,7 +11829,7 @@
         <v>43097</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="48" t="s">
         <v>44</v>
       </c>
@@ -11834,7 +11847,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>43101</v>
       </c>
@@ -11858,7 +11871,7 @@
         <v>43109</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>43132</v>
       </c>
@@ -11884,7 +11897,7 @@
         <v>43152</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>43160</v>
       </c>
@@ -11904,7 +11917,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>43191</v>
       </c>
@@ -11924,7 +11937,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>43221</v>
       </c>
@@ -11944,7 +11957,7 @@
       <c r="J396" s="12"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>43252</v>
       </c>
@@ -11964,7 +11977,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>43282</v>
       </c>
@@ -11990,7 +12003,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>43313</v>
       </c>
@@ -12016,7 +12029,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>51</v>
@@ -12038,7 +12051,7 @@
         <v>43327</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>51</v>
@@ -12060,7 +12073,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>43344</v>
       </c>
@@ -12086,7 +12099,7 @@
         <v>43356</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>59</v>
@@ -12108,7 +12121,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>43374</v>
       </c>
@@ -12128,7 +12141,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>43405</v>
       </c>
@@ -12148,7 +12161,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>43435</v>
       </c>
@@ -12168,7 +12181,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="48" t="s">
         <v>45</v>
       </c>
@@ -12186,7 +12199,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>43466</v>
       </c>
@@ -12210,7 +12223,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>51</v>
@@ -12232,7 +12245,7 @@
         <v>43479</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>52</v>
@@ -12254,7 +12267,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>51</v>
@@ -12276,7 +12289,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>43497</v>
       </c>
@@ -12302,7 +12315,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>51</v>
@@ -12324,7 +12337,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>59</v>
@@ -12346,7 +12359,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>43525</v>
       </c>
@@ -12372,7 +12385,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>50</v>
@@ -12392,7 +12405,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>43556</v>
       </c>
@@ -12418,7 +12431,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>51</v>
@@ -12440,7 +12453,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>51</v>
@@ -12462,7 +12475,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>43586</v>
       </c>
@@ -12482,7 +12495,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>43617</v>
       </c>
@@ -12508,7 +12521,7 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>50</v>
@@ -12528,7 +12541,7 @@
         <v>43642</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>43647</v>
       </c>
@@ -12554,7 +12567,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>43678</v>
       </c>
@@ -12580,7 +12593,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>51</v>
@@ -12602,7 +12615,7 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>43709</v>
       </c>
@@ -12622,7 +12635,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>43739</v>
       </c>
@@ -12642,7 +12655,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>43770</v>
       </c>
@@ -12662,7 +12675,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>43800</v>
       </c>
@@ -12688,7 +12701,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>55</v>
@@ -12710,7 +12723,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="48" t="s">
         <v>46</v>
       </c>
@@ -12728,7 +12741,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>43831</v>
       </c>
@@ -12752,7 +12765,7 @@
         <v>43841</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>64</v>
@@ -12772,7 +12785,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>52</v>
@@ -12794,7 +12807,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>43862</v>
       </c>
@@ -12814,7 +12827,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>43891</v>
       </c>
@@ -12834,7 +12847,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>43922</v>
       </c>
@@ -12854,7 +12867,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>43952</v>
       </c>
@@ -12874,7 +12887,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>43983</v>
       </c>
@@ -12894,7 +12907,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>44013</v>
       </c>
@@ -12914,7 +12927,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>44044</v>
       </c>
@@ -12934,7 +12947,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>44075</v>
       </c>
@@ -12954,7 +12967,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>44105</v>
       </c>
@@ -12978,7 +12991,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>44136</v>
       </c>
@@ -12998,7 +13011,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>44166</v>
       </c>
@@ -13022,7 +13035,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>67</v>
@@ -13044,7 +13057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="48" t="s">
         <v>47</v>
       </c>
@@ -13062,7 +13075,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>44197</v>
       </c>
@@ -13082,7 +13095,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>44228</v>
       </c>
@@ -13102,7 +13115,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>44256</v>
       </c>
@@ -13128,7 +13141,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>44287</v>
       </c>
@@ -13148,7 +13161,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>44317</v>
       </c>
@@ -13168,7 +13181,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>44348</v>
       </c>
@@ -13188,7 +13201,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>44378</v>
       </c>
@@ -13208,7 +13221,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>44409</v>
       </c>
@@ -13228,7 +13241,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>44440</v>
       </c>
@@ -13248,7 +13261,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>44470</v>
       </c>
@@ -13272,7 +13285,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>44501</v>
       </c>
@@ -13298,7 +13311,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>51</v>
@@ -13318,7 +13331,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="49"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40" t="s">
         <v>69</v>
       </c>
@@ -13340,7 +13353,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>55</v>
@@ -13362,7 +13375,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>44531</v>
       </c>
@@ -13382,7 +13395,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="48" t="s">
         <v>48</v>
       </c>
@@ -13400,7 +13413,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>44562</v>
       </c>
@@ -13420,7 +13433,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>44593</v>
       </c>
@@ -13440,7 +13453,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>44621</v>
       </c>
@@ -13466,7 +13479,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>50</v>
@@ -13484,7 +13497,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="49"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>44652</v>
       </c>
@@ -13508,7 +13521,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>44682</v>
       </c>
@@ -13528,7 +13541,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>44713</v>
       </c>
@@ -13554,7 +13567,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>44743</v>
       </c>
@@ -13574,7 +13587,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>44774</v>
       </c>
@@ -13598,7 +13611,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>51</v>
@@ -13620,7 +13633,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>51</v>
@@ -13642,7 +13655,7 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>44805</v>
       </c>
@@ -13668,7 +13681,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>44835</v>
       </c>
@@ -13694,7 +13707,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>44866</v>
       </c>
@@ -13718,7 +13731,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>71</v>
@@ -13740,7 +13753,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>44896</v>
       </c>
@@ -13766,7 +13779,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="48" t="s">
         <v>73</v>
       </c>
@@ -13784,7 +13797,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>44927</v>
       </c>
@@ -13808,7 +13821,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>44958</v>
       </c>
@@ -13834,7 +13847,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>59</v>
@@ -13856,7 +13869,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>44986</v>
       </c>
@@ -13876,7 +13889,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>45017</v>
       </c>
@@ -13896,7 +13909,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>45047</v>
       </c>
@@ -13922,7 +13935,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>45078</v>
       </c>
@@ -13948,7 +13961,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>45108</v>
       </c>
@@ -13974,7 +13987,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>59</v>
@@ -13996,20 +14009,22 @@
         <v>254</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>45139</v>
       </c>
       <c r="B490" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C490" s="13"/>
+      <c r="C490" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D490" s="39"/>
       <c r="E490" s="9"/>
       <c r="F490" s="20"/>
-      <c r="G490" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G490" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H490" s="39">
         <v>1</v>
@@ -14020,49 +14035,61 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>45170</v>
       </c>
       <c r="B491" s="20"/>
-      <c r="C491" s="13"/>
+      <c r="C491" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D491" s="39"/>
       <c r="E491" s="9"/>
       <c r="F491" s="20"/>
-      <c r="G491" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G491" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H491" s="39"/>
       <c r="I491" s="9"/>
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>45200</v>
       </c>
-      <c r="B492" s="20"/>
-      <c r="C492" s="13"/>
+      <c r="B492" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C492" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D492" s="39"/>
       <c r="E492" s="9"/>
       <c r="F492" s="20"/>
-      <c r="G492" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H492" s="39"/>
+      <c r="G492" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H492" s="39">
+        <v>2</v>
+      </c>
       <c r="I492" s="9"/>
       <c r="J492" s="11"/>
-      <c r="K492" s="20"/>
-    </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B493" s="20"/>
+      <c r="K492" s="20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A493" s="40"/>
+      <c r="B493" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C493" s="13"/>
-      <c r="D493" s="39"/>
+      <c r="D493" s="39">
+        <v>1</v>
+      </c>
       <c r="E493" s="9"/>
       <c r="F493" s="20"/>
       <c r="G493" s="13" t="str">
@@ -14072,29 +14099,37 @@
       <c r="H493" s="39"/>
       <c r="I493" s="9"/>
       <c r="J493" s="11"/>
-      <c r="K493" s="20"/>
-    </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K493" s="49">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B494" s="20"/>
-      <c r="C494" s="13"/>
+      <c r="C494" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D494" s="39"/>
       <c r="E494" s="9"/>
       <c r="F494" s="20"/>
-      <c r="G494" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G494" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H494" s="39"/>
       <c r="I494" s="9"/>
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" s="40"/>
-      <c r="B495" s="20"/>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A495" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B495" s="20" t="s">
+        <v>261</v>
+      </c>
       <c r="C495" s="13"/>
       <c r="D495" s="39"/>
       <c r="E495" s="9"/>
@@ -14106,10 +14141,14 @@
       <c r="H495" s="39"/>
       <c r="I495" s="9"/>
       <c r="J495" s="11"/>
-      <c r="K495" s="20"/>
-    </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="40"/>
+      <c r="K495" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A496" s="48" t="s">
+        <v>260</v>
+      </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
       <c r="D496" s="39"/>
@@ -14124,8 +14163,10 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A497" s="40"/>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A497" s="40">
+        <v>45292</v>
+      </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
       <c r="D497" s="39"/>
@@ -14140,8 +14181,10 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A498" s="40"/>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A498" s="40">
+        <v>45323</v>
+      </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
       <c r="D498" s="39"/>
@@ -14156,8 +14199,10 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A499" s="40"/>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A499" s="40">
+        <v>45352</v>
+      </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
       <c r="D499" s="39"/>
@@ -14172,8 +14217,10 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A500" s="40"/>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A500" s="40">
+        <v>45383</v>
+      </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
       <c r="D500" s="39"/>
@@ -14188,8 +14235,10 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A501" s="40"/>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A501" s="40">
+        <v>45413</v>
+      </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
       <c r="D501" s="39"/>
@@ -14204,8 +14253,10 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" s="40"/>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A502" s="40">
+        <v>45444</v>
+      </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
       <c r="D502" s="39"/>
@@ -14220,8 +14271,10 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A503" s="40"/>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A503" s="40">
+        <v>45474</v>
+      </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
       <c r="D503" s="39"/>
@@ -14236,8 +14289,10 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A504" s="40"/>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A504" s="40">
+        <v>45505</v>
+      </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
       <c r="D504" s="39"/>
@@ -14252,7 +14307,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14268,7 +14323,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14284,7 +14339,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14300,7 +14355,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14316,7 +14371,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14332,7 +14387,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -14348,7 +14403,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -14364,7 +14419,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -14380,7 +14435,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -14396,7 +14451,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -14412,7 +14467,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -14428,7 +14483,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -14444,7 +14499,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -14460,7 +14515,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -14476,7 +14531,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -14492,7 +14547,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -14508,7 +14563,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -14524,7 +14579,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -14540,7 +14595,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -14556,7 +14611,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -14572,7 +14627,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -14588,7 +14643,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -14604,7 +14659,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -14620,7 +14675,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -14636,7 +14691,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -14652,7 +14707,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -14668,7 +14723,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -14684,7 +14739,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -14700,7 +14755,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -14716,7 +14771,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -14732,7 +14787,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -14748,7 +14803,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -14764,7 +14819,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -14780,7 +14835,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14796,7 +14851,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14812,21 +14867,53 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A540" s="41"/>
-      <c r="B540" s="15"/>
-      <c r="C540" s="42"/>
-      <c r="D540" s="43"/>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A540" s="40"/>
+      <c r="B540" s="20"/>
+      <c r="C540" s="13"/>
+      <c r="D540" s="39"/>
       <c r="E540" s="9"/>
-      <c r="F540" s="15"/>
-      <c r="G540" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H540" s="43"/>
+      <c r="F540" s="20"/>
+      <c r="G540" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H540" s="39"/>
       <c r="I540" s="9"/>
-      <c r="J540" s="12"/>
-      <c r="K540" s="15"/>
+      <c r="J540" s="11"/>
+      <c r="K540" s="20"/>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A541" s="40"/>
+      <c r="B541" s="20"/>
+      <c r="C541" s="13"/>
+      <c r="D541" s="39"/>
+      <c r="E541" s="9"/>
+      <c r="F541" s="20"/>
+      <c r="G541" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H541" s="39"/>
+      <c r="I541" s="9"/>
+      <c r="J541" s="11"/>
+      <c r="K541" s="20"/>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A542" s="41"/>
+      <c r="B542" s="15"/>
+      <c r="C542" s="42"/>
+      <c r="D542" s="43"/>
+      <c r="E542" s="9"/>
+      <c r="F542" s="15"/>
+      <c r="G542" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H542" s="43"/>
+      <c r="I542" s="9"/>
+      <c r="J542" s="12"/>
+      <c r="K542" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14843,10 +14930,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14869,28 +14956,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -14903,7 +14990,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14932,7 +15019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -14958,17 +15045,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14989,7 +15076,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15016,7 +15103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15042,7 +15129,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15068,7 +15155,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15094,7 +15181,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15120,7 +15207,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15146,7 +15233,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15172,7 +15259,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15198,7 +15285,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15218,7 +15305,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15238,7 +15325,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15258,7 +15345,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15279,7 +15366,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15300,7 +15387,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15321,7 +15408,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15342,7 +15429,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15363,7 +15450,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15384,7 +15471,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15405,7 +15492,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15426,7 +15513,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15447,7 +15534,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15468,7 +15555,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15489,7 +15576,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15510,7 +15597,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15531,7 +15618,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15552,7 +15639,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15573,7 +15660,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15594,7 +15681,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15615,7 +15702,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15636,7 +15723,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15657,7 +15744,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15678,7 +15765,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15687,7 +15774,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15696,7 +15783,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15705,7 +15792,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15714,7 +15801,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15723,7 +15810,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15732,7 +15819,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15741,7 +15828,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15750,7 +15837,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15759,7 +15846,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15768,7 +15855,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15777,7 +15864,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15786,7 +15873,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15795,7 +15882,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15804,7 +15891,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15813,7 +15900,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15822,7 +15909,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15831,7 +15918,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15840,7 +15927,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15849,7 +15936,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15858,7 +15945,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15867,7 +15954,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15876,7 +15963,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15885,7 +15972,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15894,7 +15981,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15903,7 +15990,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15912,7 +15999,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15921,7 +16008,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15930,7 +16017,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15939,7 +16026,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
